--- a/library/use_file/openpyxl/xlsx/sample7.xlsx
+++ b/library/use_file/openpyxl/xlsx/sample7.xlsx
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>Write B2</t>
+    <t>write B2</t>
   </si>
   <si>
-    <t>Write C3</t>
+    <t>write C3</t>
   </si>
   <si>
-    <t>Write D4</t>
+    <t>write D4</t>
+  </si>
+  <si>
+    <t>write E5</t>
   </si>
 </sst>
 </file>
@@ -40,27 +43,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000000FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="0000FF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,11 +63,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -377,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,19 +382,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="D4" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="E5" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
